--- a/Bases_de_Dados_(2006-2021)/China Chinese Super League_2013.xlsx
+++ b/Bases_de_Dados_(2006-2021)/China Chinese Super League_2013.xlsx
@@ -2330,7 +2330,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -11922,7 +11922,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -12581,7 +12581,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -15628,7 +15628,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -17595,7 +17595,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -19116,7 +19116,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -20865,7 +20865,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -22168,7 +22168,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -26310,7 +26310,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -27841,7 +27841,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -28931,7 +28931,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -30670,7 +30670,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -33727,7 +33727,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -34594,7 +34594,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -36992,7 +36992,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -37651,7 +37651,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -39172,7 +39172,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -42011,7 +42011,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I191" t="n">
@@ -42442,7 +42442,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -44845,7 +44845,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I204" t="n">
@@ -45930,7 +45930,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -47897,7 +47897,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I218" t="n">
@@ -50072,7 +50072,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -52911,7 +52911,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Hangzhou</t>
+          <t>Zhejiang FC</t>
         </is>
       </c>
       <c r="I241" t="n">
